--- a/Practice Sessions/Session 1/Data/VietnamIOTable.xlsx
+++ b/Practice Sessions/Session 1/Data/VietnamIOTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Dropbox\CRED_Thanh\Training 3\Session 1 revised\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onanongchinskul/Dropbox/DGE-CRED-master/DGE-CRED-master/Practice Sessions/Session 1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10321B5F-2040-402F-8C09-03F51F8E0416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4F430-62D1-9C4E-AC01-C209F70BF576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="902" xr2:uid="{9031F9F6-16FE-4C0A-88F7-72337636CDDF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25660" windowHeight="13740" tabRatio="246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="18" r:id="rId1"/>
@@ -50,6 +50,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>Sorry, the query is too large to fit into the Excel cell. You will not be able to update your table with the .Stat Populator.</t>
   </si>
@@ -411,6 +413,15 @@
   </si>
   <si>
     <t>Data extracted on 23 Sep 2022 14:24 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Agri</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Construction</t>
   </si>
 </sst>
 </file>
@@ -660,9 +671,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2 3 2" xfId="2" xr:uid="{2B1906BE-A4ED-4C78-97EA-3AD8F698EFFA}"/>
+    <cellStyle name="Comma 2 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{EB38409B-7369-416A-B2C7-4A085F0E2ED2}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -973,20 +984,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB847D83-4870-4DFA-BBA6-771BE5B9FF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA57" sqref="AA57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -995,12 +1006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1073,7 @@
       <c r="BC3" s="19"/>
       <c r="BD3" s="20"/>
     </row>
-    <row r="4" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1135,7 @@
       <c r="BC4" s="14"/>
       <c r="BD4" s="15"/>
     </row>
-    <row r="5" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1197,7 @@
       <c r="BC5" s="14"/>
       <c r="BD5" s="15"/>
     </row>
-    <row r="6" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1259,7 @@
       <c r="BC6" s="14"/>
       <c r="BD6" s="15"/>
     </row>
-    <row r="7" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -1586,7 +1597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1767,7 @@
         <v>-10755.9</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>-104.9</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
@@ -2096,7 +2107,7 @@
         <v>-5850.8</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>-1870.9</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>71</v>
       </c>
@@ -2436,7 +2447,7 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
@@ -2606,7 +2617,7 @@
         <v>-9590.6</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>-21281.1</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>74</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>-538.79999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
@@ -3116,7 +3127,7 @@
         <v>-2350.4</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -3286,7 +3297,7 @@
         <v>-28794</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
@@ -3456,7 +3467,7 @@
         <v>-21634</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>78</v>
       </c>
@@ -3626,7 +3637,7 @@
         <v>-3100.2</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>-3502</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
@@ -3966,7 +3977,7 @@
         <v>-1708.8</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>-16888.599999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -4306,7 +4317,7 @@
         <v>-14046.1</v>
       </c>
     </row>
-    <row r="25" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>83</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>-10985.9</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>84</v>
       </c>
@@ -4646,7 +4657,7 @@
         <v>-10975.3</v>
       </c>
     </row>
-    <row r="27" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>85</v>
       </c>
@@ -4816,7 +4827,7 @@
         <v>-15891</v>
       </c>
     </row>
-    <row r="28" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>86</v>
       </c>
@@ -4986,7 +4997,7 @@
         <v>-4643.5</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>87</v>
       </c>
@@ -5156,7 +5167,7 @@
         <v>-3435.4</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5326,7 +5337,7 @@
         <v>-7204.9</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -5496,7 +5507,7 @@
         <v>-367.7</v>
       </c>
     </row>
-    <row r="32" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -5666,7 +5677,7 @@
         <v>-23.1</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -5836,7 +5847,7 @@
         <v>-75.5</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>92</v>
       </c>
@@ -6006,7 +6017,7 @@
         <v>-23453.5</v>
       </c>
     </row>
-    <row r="35" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>93</v>
       </c>
@@ -6176,7 +6187,7 @@
         <v>-4863.3</v>
       </c>
     </row>
-    <row r="36" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>94</v>
       </c>
@@ -6346,7 +6357,7 @@
         <v>-552.20000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -6516,7 +6527,7 @@
         <v>-973.3</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>96</v>
       </c>
@@ -6686,7 +6697,7 @@
         <v>-1984.7</v>
       </c>
     </row>
-    <row r="39" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>97</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>-21.2</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>98</v>
       </c>
@@ -7026,7 +7037,7 @@
         <v>-1448.1</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>99</v>
       </c>
@@ -7196,7 +7207,7 @@
         <v>-965.5</v>
       </c>
     </row>
-    <row r="42" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>100</v>
       </c>
@@ -7366,7 +7377,7 @@
         <v>-277.5</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
@@ -7536,7 +7547,7 @@
         <v>-1683.6</v>
       </c>
     </row>
-    <row r="44" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>102</v>
       </c>
@@ -7706,7 +7717,7 @@
         <v>-1837.5</v>
       </c>
     </row>
-    <row r="45" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>103</v>
       </c>
@@ -7876,7 +7887,7 @@
         <v>-445.9</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>104</v>
       </c>
@@ -8046,7 +8057,7 @@
         <v>-1717.2</v>
       </c>
     </row>
-    <row r="47" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>105</v>
       </c>
@@ -8216,7 +8227,7 @@
         <v>-1136.2</v>
       </c>
     </row>
-    <row r="48" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>106</v>
       </c>
@@ -8386,7 +8397,7 @@
         <v>-156.1</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>107</v>
       </c>
@@ -8556,7 +8567,7 @@
         <v>-198</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>108</v>
       </c>
@@ -8726,7 +8737,7 @@
         <v>-128.30000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>109</v>
       </c>
@@ -8896,7 +8907,7 @@
         <v>-584.1</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>110</v>
       </c>
@@ -9066,7 +9077,7 @@
         <v>-207.7</v>
       </c>
     </row>
-    <row r="53" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
@@ -9236,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>112</v>
       </c>
@@ -9406,7 +9417,7 @@
         <v>-134.9</v>
       </c>
     </row>
-    <row r="55" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>113</v>
       </c>
@@ -9576,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
@@ -9746,7 +9757,7 @@
         <v>-238397.1</v>
       </c>
     </row>
-    <row r="57" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>115</v>
       </c>
@@ -9916,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
@@ -10086,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:56" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:56" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>117</v>
       </c>
@@ -10104,58 +10115,64 @@
     <mergeCell ref="C5:BD5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTS_2021&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BD7736BA-10F2-4883-B167-3708D2F27076}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTS_2021&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1C7523A2-DD70-4720-AFBA-CFA08601A4B8}"/>
-    <hyperlink ref="BB7" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTS_2021&amp;Coords=[COL].[CONS_NONRES]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{85AEEBA6-3806-4C70-83C7-4D5200A70B91}"/>
-    <hyperlink ref="A59" r:id="rId4" display="https://stats-1.oecd.org/index.aspx?DatasetCode=IOTS_2021" xr:uid="{D913A8E9-0A8B-492D-B66B-AC38168F2E37}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTS_2021&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTS_2021&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BB7" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTS_2021&amp;Coords=[COL].[CONS_NONRES]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A59" r:id="rId4" display="https://stats-1.oecd.org/index.aspx?DatasetCode=IOTS_2021" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0623C86-B103-4BA1-8AEA-83FF88031F9B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1">
+        <f>SUM(Sheet1!C57:D57)/SUM(Sheet1!C57:AU57)</f>
+        <v>0.15832106501296592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Sheet1!E57:AA57)/SUM(Sheet1!C57:AU57)</f>
+        <v>0.47662447083044029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sheet1!AB57:AU57)/SUM(Sheet1!C57:AU57)</f>
+        <v>0.36505446415659382</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="514b7c65-86d8-4dda-92f1-aa92439df021">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaServiceMetadata xmlns="167faf68-1382-435f-8f09-a46b79a55ee8" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="167faf68-1382-435f-8f09-a46b79a55ee8" xsi:nil="true"/>
-    <j78542b1fffc4a1c84659474212e3133 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ERCD</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ab3ec0c9-2ce1-477e-8dd0-15d1f7f6b467</TermId>
-        </TermInfo>
-      </Terms>
-    </j78542b1fffc4a1c84659474212e3133>
-    <ia017ac09b1942648b563fe0b2b14d52 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">EROD-SDI</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">aff15768-80d3-4034-98c2-68c6515e070d</TermId>
-        </TermInfo>
-      </Terms>
-    </ia017ac09b1942648b563fe0b2b14d52>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167faf68-1382-435f-8f09-a46b79a55ee8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10389,23 +10406,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="514b7c65-86d8-4dda-92f1-aa92439df021">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaServiceMetadata xmlns="167faf68-1382-435f-8f09-a46b79a55ee8" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="167faf68-1382-435f-8f09-a46b79a55ee8" xsi:nil="true"/>
+    <j78542b1fffc4a1c84659474212e3133 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ERCD</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ab3ec0c9-2ce1-477e-8dd0-15d1f7f6b467</TermId>
+        </TermInfo>
+      </Terms>
+    </j78542b1fffc4a1c84659474212e3133>
+    <ia017ac09b1942648b563fe0b2b14d52 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">EROD-SDI</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">aff15768-80d3-4034-98c2-68c6515e070d</TermId>
+        </TermInfo>
+      </Terms>
+    </ia017ac09b1942648b563fe0b2b14d52>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167faf68-1382-435f-8f09-a46b79a55ee8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF0A38C8-DC47-4D85-8737-1C8CF0D76C92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61553C8D-63CE-471E-BEEA-F7572491E7D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13688f11-6691-4058-89b4-c094c2f1da05"/>
-    <ds:schemaRef ds:uri="514b7c65-86d8-4dda-92f1-aa92439df021"/>
-    <ds:schemaRef ds:uri="167faf68-1382-435f-8f09-a46b79a55ee8"/>
-    <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10431,9 +10467,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61553C8D-63CE-471E-BEEA-F7572491E7D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF0A38C8-DC47-4D85-8737-1C8CF0D76C92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13688f11-6691-4058-89b4-c094c2f1da05"/>
+    <ds:schemaRef ds:uri="514b7c65-86d8-4dda-92f1-aa92439df021"/>
+    <ds:schemaRef ds:uri="167faf68-1382-435f-8f09-a46b79a55ee8"/>
+    <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>